--- a/tietokanta/character_creation/ancestry.xlsx
+++ b/tietokanta/character_creation/ancestry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\character_creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2185B831-BB8E-451D-8293-AC55DF3900B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDA89EE-72B6-43DC-B8DA-7DEFD6536646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="1380" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="1710" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -471,12 +471,17 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="15.7109375" customWidth="1"/>
+    <col min="1" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">

--- a/tietokanta/character_creation/ancestry.xlsx
+++ b/tietokanta/character_creation/ancestry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\character_creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDA89EE-72B6-43DC-B8DA-7DEFD6536646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8808C56D-A201-4708-BFF0-98C3BCCE379B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="1710" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,14 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{D3B0DEC5-97FF-4C89-A80A-1CDAEA154B41}" name="schema" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\character_creation\schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
@@ -69,9 +77,6 @@
     <t>Common|||Dwarf|||intmod</t>
   </si>
   <si>
-    <t>Dwarf||||Humanoid</t>
-  </si>
-  <si>
     <t>Darkvision</t>
   </si>
   <si>
@@ -87,9 +92,6 @@
     <t>Common|||Elven|||intmod</t>
   </si>
   <si>
-    <t>Elf||||Humanoid</t>
-  </si>
-  <si>
     <t>LowLight Vision</t>
   </si>
   <si>
@@ -108,9 +110,6 @@
     <t>Common|||Gnomish|||Sylvan|||intmod</t>
   </si>
   <si>
-    <t>Gnome||||Humanoid</t>
-  </si>
-  <si>
     <t>Goblin</t>
   </si>
   <si>
@@ -123,9 +122,6 @@
     <t>Common|||Goblin|||intmod</t>
   </si>
   <si>
-    <t>Goblin||||Humanoid</t>
-  </si>
-  <si>
     <t>Halfling</t>
   </si>
   <si>
@@ -135,9 +131,6 @@
     <t>Common|||Halfling|||intmod</t>
   </si>
   <si>
-    <t>Halfling||||Humanoid</t>
-  </si>
-  <si>
     <t>Keen Eyes</t>
   </si>
   <si>
@@ -150,7 +143,22 @@
     <t>Common|||intmod</t>
   </si>
   <si>
-    <t>Human||||Humanoid</t>
+    <t>Dwarf|||Humanoid</t>
+  </si>
+  <si>
+    <t>Elf|||Humanoid</t>
+  </si>
+  <si>
+    <t>Gnome|||Humanoid</t>
+  </si>
+  <si>
+    <t>Goblin|||Humanoid</t>
+  </si>
+  <si>
+    <t>Halfling|||Humanoid</t>
+  </si>
+  <si>
+    <t>Human|||Humanoid</t>
   </si>
 </sst>
 </file>
@@ -186,8 +194,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -203,6 +212,75 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
+<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
+  <Schema ID="Schema1">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="ancestry">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="race" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Ancestry" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="HP" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Size" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Speed" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Boost" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Flaw" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Language" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Trait" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Special" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Map ID="1" Name="ancestry-määritys" RootElement="ancestry" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+  </Map>
+</MapInfo>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5820788F-0302-4058-A9C1-EF0AA5954AB6}" name="Taulukko1" displayName="Taulukko1" ref="A1:I7" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:I7" xr:uid="{5F4371CF-F095-4ECF-B96E-5366C2F01603}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{6BD45A7D-47B8-48D5-8B4C-EAC9640A35DA}" uniqueName="Ancestry" name="Ancestry">
+      <xmlColumnPr mapId="1" xpath="/ancestry/race/Ancestry" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{0A3706C9-8573-4B0B-A34F-A0DA84891C80}" uniqueName="HP" name="HP">
+      <xmlColumnPr mapId="1" xpath="/ancestry/race/HP" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{AEB5B3DA-F9F1-4240-A5FD-B9E358AA29F7}" uniqueName="Size" name="Size">
+      <xmlColumnPr mapId="1" xpath="/ancestry/race/Size" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{31E041E3-C4AB-4DC1-922F-5AC065372049}" uniqueName="Speed" name="Speed">
+      <xmlColumnPr mapId="1" xpath="/ancestry/race/Speed" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{786D15C6-DBF4-45AF-AD17-5AFED20CD794}" uniqueName="Boost" name="Boost">
+      <xmlColumnPr mapId="1" xpath="/ancestry/race/Boost" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{D80B9758-66A1-4E4E-A111-6BA55351B60D}" uniqueName="Flaw" name="Flaw">
+      <xmlColumnPr mapId="1" xpath="/ancestry/race/Flaw" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{892D8274-10BE-4668-A9C4-480A9537C101}" uniqueName="Language" name="Language">
+      <xmlColumnPr mapId="1" xpath="/ancestry/race/Language" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{CD4D6967-56D7-44F0-86F7-0B6FA356AA88}" uniqueName="Trait" name="Trait">
+      <xmlColumnPr mapId="1" xpath="/ancestry/race/Trait" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{9E416233-3923-4350-A63F-166C009DECCC}" uniqueName="Special" name="Special">
+      <xmlColumnPr mapId="1" xpath="/ancestry/race/Special" xmlDataType="string"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,7 +549,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,174 +592,179 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
+      <c r="A3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
+      <c r="A4" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B4">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D4">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
+      <c r="A5" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D5">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>33</v>
+      <c r="A6" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D6">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>38</v>
+      <c r="A7" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B7">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="I7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/tietokanta/character_creation/ancestry.xlsx
+++ b/tietokanta/character_creation/ancestry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\character_creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8808C56D-A201-4708-BFF0-98C3BCCE379B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F9CBC0-6C0F-478D-86BF-1F8347F9BAED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
